--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303475.543112943</v>
+        <v>319233.1861841195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776017</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.1449482</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4790382.659738131</v>
+        <v>4813416.780476122</v>
       </c>
     </row>
     <row r="11">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="15">
@@ -1737,16 +1737,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.30129424928645</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="G17" t="n">
         <v>27.59002526031614</v>
@@ -1865,7 +1865,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
         <v>27.59002526031614</v>
@@ -1977,7 +1977,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,62 +1999,62 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C19" t="n">
+      <c r="R19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D19" t="n">
+      <c r="S19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="T19" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,52 +2096,52 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="U20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.1497834296626</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>41.7314554634327</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.5377819982128</v>
       </c>
       <c r="V24" t="n">
-        <v>184.7545668083779</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>87.20907807295006</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>17.01742621531828</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2807,7 +2807,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.2443446493089</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>196.0929612559941</v>
       </c>
       <c r="C32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>53.52424191912021</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>179.7283339446664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,28 +3308,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>113.5091113868199</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>189.7190331592112</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>37.80600559940813</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>40.7624932299561</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,73 +3737,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>187.9840913941556</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>177.9933921796108</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>213.4242636173429</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.08057877879325</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.22346081253004</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3910,40 +3910,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>65.87777657221105</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="F17" t="n">
-        <v>85.81333917329844</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="G17" t="n">
-        <v>57.94462678914073</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="H17" t="n">
-        <v>30.07591440498301</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="I17" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
@@ -5519,46 +5519,46 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O18" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
         <v>83.04597603355158</v>
@@ -5616,13 +5616,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
         <v>2.207202020825291</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
         <v>2.207202020825291</v>
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="T19" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="U19" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V19" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W19" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C20" t="n">
-        <v>475.3318284112885</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D20" t="n">
-        <v>475.3318284112885</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>840.2816181387041</v>
       </c>
       <c r="V24" t="n">
-        <v>777.4363809567192</v>
+        <v>605.1295099069614</v>
       </c>
       <c r="W24" t="n">
-        <v>533.9876043126192</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X24" t="n">
-        <v>533.9876043126192</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y24" t="n">
-        <v>326.2273055476653</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U26" t="n">
-        <v>376.1934816808115</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V26" t="n">
-        <v>376.1934816808115</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>376.1934816808115</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>376.1934816808115</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>376.1934816808115</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6403,10 +6403,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6446,13 +6446,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6503,7 +6503,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
         <v>720.6083788665362</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>650.444607311663</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>650.444607311663</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>650.444607311663</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>650.444607311663</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>432.8749126823416</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>72.05054329482212</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>72.05054329482212</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>72.05054329482212</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>933.9571464551993</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>218.5851012679371</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.6788758079141</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V35" t="n">
-        <v>40.6788758079141</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="W35" t="n">
-        <v>40.6788758079141</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="X35" t="n">
-        <v>40.6788758079141</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.6788758079141</v>
+        <v>198.7752914759215</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>593.6552238493341</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C36" t="n">
-        <v>419.2021945682071</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D36" t="n">
-        <v>419.2021945682071</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X36" t="n">
-        <v>761.8705608694022</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y36" t="n">
-        <v>761.8705608694022</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>669.9406037026066</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>582.8795121963512</v>
+        <v>262.8286527885064</v>
       </c>
       <c r="C39" t="n">
-        <v>408.4264829152243</v>
+        <v>262.8286527885064</v>
       </c>
       <c r="D39" t="n">
-        <v>408.4264829152243</v>
+        <v>262.8286527885064</v>
       </c>
       <c r="E39" t="n">
-        <v>370.2385984713777</v>
+        <v>262.8286527885064</v>
       </c>
       <c r="F39" t="n">
-        <v>223.7040404982626</v>
+        <v>262.8286527885064</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>221.6544172026922</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="X39" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="Y39" t="n">
-        <v>582.8795121963512</v>
+        <v>262.8286527885064</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>232.6540053493298</v>
       </c>
       <c r="E41" t="n">
-        <v>17.07394108938743</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="F41" t="n">
-        <v>17.07394108938743</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="G41" t="n">
-        <v>17.07394108938743</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="H41" t="n">
         <v>17.07394108938743</v>
@@ -7412,49 +7412,49 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>107.2817095536563</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>287.3575611383148</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>498.6475821194843</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>704.5021043267236</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6970544693717</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>843.6054391011446</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="T41" t="n">
-        <v>843.6054391011446</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="U41" t="n">
-        <v>843.6054391011446</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="V41" t="n">
-        <v>843.6054391011446</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="W41" t="n">
-        <v>843.6054391011446</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="X41" t="n">
-        <v>663.8141338692145</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="Y41" t="n">
-        <v>448.2340696092722</v>
+        <v>232.6540053493298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.3113960948429</v>
+        <v>130.4430766818081</v>
       </c>
       <c r="C42" t="n">
-        <v>176.3113960948429</v>
+        <v>130.4430766818081</v>
       </c>
       <c r="D42" t="n">
-        <v>176.3113960948429</v>
+        <v>130.4430766818081</v>
       </c>
       <c r="E42" t="n">
-        <v>17.07394108938743</v>
+        <v>130.4430766818081</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>130.4430766818081</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>130.4430766818081</v>
       </c>
       <c r="H42" t="n">
         <v>17.07394108938743</v>
@@ -7497,43 +7497,43 @@
         <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>353.7215221283943</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7635558748512</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0535768560208</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>853.6970544693717</v>
+        <v>752.5275250222574</v>
       </c>
       <c r="S42" t="n">
-        <v>853.6970544693717</v>
+        <v>721.9987767267725</v>
       </c>
       <c r="T42" t="n">
-        <v>853.6970544693717</v>
+        <v>721.9987767267725</v>
       </c>
       <c r="U42" t="n">
-        <v>638.1169902094293</v>
+        <v>721.9987767267725</v>
       </c>
       <c r="V42" t="n">
-        <v>638.1169902094293</v>
+        <v>721.9987767267725</v>
       </c>
       <c r="W42" t="n">
-        <v>422.536925949487</v>
+        <v>506.4187124668301</v>
       </c>
       <c r="X42" t="n">
-        <v>422.536925949487</v>
+        <v>506.4187124668301</v>
       </c>
       <c r="Y42" t="n">
-        <v>214.7766271845331</v>
+        <v>298.6584137018762</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L43" t="n">
-        <v>746.4788889868139</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M43" t="n">
-        <v>785.6669271790361</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N43" t="n">
-        <v>829.3577778344724</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="S43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8462,13 +8462,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8693,19 +8693,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,16 +8772,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9021,10 +9021,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9167,19 +9167,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O17" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
         <v>165.029656544824</v>
@@ -9258,7 +9258,7 @@
         <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>167.5717993463377</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>152.5681426542525</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>338.0329219811887</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>242.3147604003904</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>311.2088090896966</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>277.2978653650641</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,19 +11145,19 @@
         <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>238.4548774837949</v>
+        <v>168.3593638339673</v>
       </c>
       <c r="O42" t="n">
-        <v>356.0205080617874</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2589826120931</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,7 +23303,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>200.8208869191</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,7 +23546,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>222.4694856490578</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="15">
@@ -23625,16 +23625,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>382.574751492425</v>
+        <v>404.5147400615823</v>
       </c>
       <c r="G17" t="n">
         <v>387.7127122548189</v>
@@ -23753,7 +23753,7 @@
         <v>182.8858643100898</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>75.85653990335669</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
         <v>144.0931458435217</v>
@@ -23865,7 +23865,7 @@
         <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>198.3513568206587</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>126.1667136577029</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23932,16 +23932,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,13 +23969,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>301.5956630564418</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,22 +24014,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2863534910952</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,13 +24254,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>209.6141974444038</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24300,10 +24300,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24339,10 +24339,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>103.403600082762</v>
       </c>
       <c r="V24" t="n">
-        <v>48.04602034104741</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,10 +24412,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>270.4049153562469</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24485,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,31 +24519,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>60.23598749168869</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24585,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>188.7555589881592</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24643,13 +24643,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24695,7 +24695,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>23.46415433900688</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>49.21658855948927</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>186.6408804074865</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,10 +24929,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>35.87239093229487</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,16 +25047,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>235.5744035704686</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,28 +25196,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>44.13596906858106</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25284,16 +25284,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>10.44569553561035</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25330,13 +25330,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>196.5189054968423</v>
       </c>
     </row>
     <row r="39">
@@ -25470,19 +25470,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>119.8390748559928</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>96.58102393325453</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25567,7 +25567,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>169.3095780461377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>126.0505384984242</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>21.03597819208977</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>191.7377084988582</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>172.8136750387107</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>128.4526048710741</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>141.4597102913078</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762547</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762547</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351700.8745024338</v>
+        <v>351700.874502434</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507028.2310008515</v>
+        <v>507028.2310008513</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306334</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306334</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507028.2310008515</v>
+        <v>488505.1665306335</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237261</v>
       </c>
       <c r="E2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237264</v>
       </c>
       <c r="F2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="G2" t="n">
         <v>74945.90033124234</v>
@@ -26341,19 +26341,19 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.147631765</v>
       </c>
       <c r="O2" t="n">
         <v>103759.0573236673</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="E4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248713</v>
       </c>
       <c r="F4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="G4" t="n">
-        <v>24763.57099960299</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="O4" t="n">
-        <v>34590.32203425346</v>
+        <v>32297.06158368185</v>
       </c>
       <c r="P4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13216.43566918077</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>13216.43566918074</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>13216.43566918077</v>
+        <v>8449.081311463757</v>
       </c>
       <c r="E6" t="n">
-        <v>46844.03566918077</v>
+        <v>50035.11236525195</v>
       </c>
       <c r="F6" t="n">
-        <v>46844.03566918077</v>
+        <v>50035.11236525193</v>
       </c>
       <c r="G6" t="n">
-        <v>40942.84372233837</v>
+        <v>49612.76865095564</v>
       </c>
       <c r="H6" t="n">
-        <v>-271.2310961487965</v>
+        <v>2117.134455014981</v>
       </c>
       <c r="I6" t="n">
-        <v>57312.5560461829</v>
+        <v>59700.92159734667</v>
       </c>
       <c r="J6" t="n">
-        <v>57312.55604618289</v>
+        <v>59700.92159734665</v>
       </c>
       <c r="K6" t="n">
-        <v>57312.55604618289</v>
+        <v>59700.92159734664</v>
       </c>
       <c r="L6" t="n">
-        <v>57312.5560461829</v>
+        <v>58572.55162492802</v>
       </c>
       <c r="M6" t="n">
-        <v>57312.5560461829</v>
+        <v>58572.55162492802</v>
       </c>
       <c r="N6" t="n">
-        <v>57312.55604618289</v>
+        <v>58572.55162492803</v>
       </c>
       <c r="O6" t="n">
-        <v>56192.54006147938</v>
+        <v>58485.80051205097</v>
       </c>
       <c r="P6" t="n">
-        <v>46844.03566918077</v>
+        <v>48378.33248915085</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
         <v>26.47527676494984</v>
@@ -35978,7 +35978,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>27.59002526031614</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37309,10 +37309,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>206.6912098978553</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>110.973048317057</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>91.118958044716</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,10 +37792,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>47.19965394337734</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>107.1131654004615</v>
+        <v>37.01765175063403</v>
       </c>
       <c r="O42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
